--- a/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_6_sine_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_6_sine_05_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.89000000000061</v>
+        <v>25.74000000000058</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.960658763134934e-16</v>
+        <v>2.046494054608583e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>41.74966584744566</v>
+        <v>46.33824671219084</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[37.131422087534, 46.36790960735731]</t>
+          <t>[41.37069612838211, 51.30579729599957]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.578658170272348</v>
+        <v>1.352237078121732</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.452868674633117, 1.7044476659115793]</t>
+          <t>[1.2390265320464247, 1.4654476241970391]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>51.71923189500335</v>
+        <v>54.47010478739367</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[48.5850306945094, 54.85343309549731]</t>
+          <t>[51.45938144078063, 57.480828134006714]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>19.38510510510556</v>
+        <v>20.20036036036082</v>
       </c>
       <c r="X2" t="n">
-        <v>18.86678678678723</v>
+        <v>19.73657657657703</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.9034234234239</v>
+        <v>20.66414414414461</v>
       </c>
     </row>
     <row r="3">
@@ -641,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.43000000000007</v>
+        <v>22</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +661,18 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.960658763134934e-16</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>2.046494054608583e-16</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.9572681818530997</v>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>44.88608450181734</v>
+        <v>48.55320690959655</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[36.51035673346063, 53.261812270174055]</t>
+          <t>[40.56630092373977, 56.54011289545334]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,25 +682,25 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.314500229429963</v>
+        <v>0.1446579199851161</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[1.1258159859711165, 1.503184472888809]</t>
+          <t>[-0.03144737390980623, 0.3207632138800385]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>0.1066289393885655</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>0.1066289393885655</v>
       </c>
       <c r="S3" t="n">
-        <v>56.32037059916772</v>
+        <v>54.68317344460878</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[51.528438752755484, 61.112302445579964]</t>
+          <t>[49.69041155217134, 59.675935337046226]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>17.73743743743749</v>
+        <v>21.49349349349349</v>
       </c>
       <c r="X3" t="n">
-        <v>17.06386386386392</v>
+        <v>20.87687687687688</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.41101101101107</v>
+        <v>22.11011011011011</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_6_sine_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_6_sine_05_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.74000000000058</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>2.046494054608583e-16</v>
+        <v>1.682156097916904e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>46.33824671219084</v>
+        <v>43.94805166828218</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[41.37069612838211, 51.30579729599957]</t>
+          <t>[39.28271454630235, 48.613388790262015]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.352237078121732</v>
+        <v>1.654131867655887</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.2390265320464247, 1.4654476241970391]</t>
+          <t>[1.540921321580579, 1.7673424137311953]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>54.47010478739367</v>
+        <v>54.39208792112433</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[51.45938144078063, 57.480828134006714]</t>
+          <t>[51.292992602132685, 57.49118324011597]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>20.20036036036082</v>
+        <v>19.14778778778825</v>
       </c>
       <c r="X2" t="n">
-        <v>19.73657657657703</v>
+        <v>18.67949949949995</v>
       </c>
       <c r="Y2" t="n">
-        <v>20.66414414414461</v>
+        <v>19.61607607607655</v>
       </c>
     </row>
     <row r="3">
@@ -641,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22</v>
+        <v>23.10000000000017</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,18 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>2.046494054608583e-16</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.9572681818530997</v>
-      </c>
+        <v>1.682156097916904e-16</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>48.55320690959655</v>
+        <v>45.47466825514681</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[40.56630092373977, 56.54011289545334]</t>
+          <t>[37.03502643197037, 53.91431007832325]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -682,25 +680,25 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1446579199851161</v>
+        <v>2.962342622303889</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-0.03144737390980623, 0.3207632138800385]</t>
+          <t>[2.7736583788450426, 3.151026865762736]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.1066289393885655</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1066289393885655</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>54.68317344460878</v>
+        <v>49.47835164155881</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[49.69041155217134, 59.675935337046226]</t>
+          <t>[44.43761488422477, 54.51908839889285]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>21.49349349349349</v>
+        <v>12.2090090090091</v>
       </c>
       <c r="X3" t="n">
-        <v>20.87687687687688</v>
+        <v>11.5153153153154</v>
       </c>
       <c r="Y3" t="n">
-        <v>22.11011011011011</v>
+        <v>12.9027027027028</v>
       </c>
     </row>
   </sheetData>
